--- a/SchedulingData/dynamic13/pso/scheduling2_9.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling2_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,325 +462,325 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>239.68</v>
+        <v>219.8</v>
       </c>
       <c r="D2" t="n">
-        <v>301.88</v>
+        <v>263.36</v>
       </c>
       <c r="E2" t="n">
-        <v>12.452</v>
+        <v>13.824</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>225.34</v>
+        <v>223.68</v>
       </c>
       <c r="D3" t="n">
-        <v>293.14</v>
+        <v>273.88</v>
       </c>
       <c r="E3" t="n">
-        <v>11.336</v>
+        <v>11.772</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>240.96</v>
+        <v>222.82</v>
       </c>
       <c r="D4" t="n">
-        <v>284.66</v>
+        <v>275.52</v>
       </c>
       <c r="E4" t="n">
-        <v>12.144</v>
+        <v>12.108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>287.06</v>
+        <v>263.36</v>
       </c>
       <c r="D5" t="n">
-        <v>349.8</v>
+        <v>325.56</v>
       </c>
       <c r="E5" t="n">
-        <v>9.32</v>
+        <v>10.744</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>293.14</v>
+        <v>273.88</v>
       </c>
       <c r="D6" t="n">
-        <v>338.42</v>
+        <v>317.42</v>
       </c>
       <c r="E6" t="n">
-        <v>7.948</v>
+        <v>8.548</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>338.42</v>
+        <v>206.78</v>
       </c>
       <c r="D7" t="n">
-        <v>404</v>
+        <v>256.26</v>
       </c>
       <c r="E7" t="n">
-        <v>4.98</v>
+        <v>13.904</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>301.88</v>
+        <v>325.56</v>
       </c>
       <c r="D8" t="n">
-        <v>358.98</v>
+        <v>371.44</v>
       </c>
       <c r="E8" t="n">
-        <v>10.372</v>
+        <v>7.776</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>284.66</v>
+        <v>217.42</v>
       </c>
       <c r="D9" t="n">
-        <v>329.04</v>
+        <v>267.22</v>
       </c>
       <c r="E9" t="n">
-        <v>9.336</v>
+        <v>12.988</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>404</v>
+        <v>256.26</v>
       </c>
       <c r="D10" t="n">
-        <v>439.06</v>
+        <v>319</v>
       </c>
       <c r="E10" t="n">
-        <v>2.604</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>349.8</v>
+        <v>226.38</v>
       </c>
       <c r="D11" t="n">
-        <v>406.1</v>
+        <v>283.98</v>
       </c>
       <c r="E11" t="n">
-        <v>6.32</v>
+        <v>13.712</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>238.06</v>
+        <v>319</v>
       </c>
       <c r="D12" t="n">
-        <v>292.22</v>
+        <v>354.6</v>
       </c>
       <c r="E12" t="n">
-        <v>10.608</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>439.06</v>
+        <v>317.42</v>
       </c>
       <c r="D13" t="n">
-        <v>494.16</v>
+        <v>355.22</v>
       </c>
       <c r="E13" t="n">
-        <v>0.184</v>
+        <v>6.388</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>494.16</v>
+        <v>371.44</v>
       </c>
       <c r="D14" t="n">
-        <v>595.1900000000001</v>
+        <v>406.5</v>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>292.22</v>
+        <v>275.52</v>
       </c>
       <c r="D15" t="n">
-        <v>347.28</v>
+        <v>332.42</v>
       </c>
       <c r="E15" t="n">
-        <v>8.231999999999999</v>
+        <v>9.028</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>329.04</v>
+        <v>354.6</v>
       </c>
       <c r="D16" t="n">
-        <v>395</v>
+        <v>422.4</v>
       </c>
       <c r="E16" t="n">
-        <v>6.84</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>358.98</v>
+        <v>406.5</v>
       </c>
       <c r="D17" t="n">
-        <v>418.48</v>
+        <v>446.12</v>
       </c>
       <c r="E17" t="n">
-        <v>7.512</v>
+        <v>3.068</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>262.28</v>
+        <v>283.98</v>
       </c>
       <c r="D18" t="n">
-        <v>351.58</v>
+        <v>333.62</v>
       </c>
       <c r="E18" t="n">
-        <v>8.132</v>
+        <v>10.368</v>
       </c>
     </row>
     <row r="19">
@@ -789,55 +789,55 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>347.28</v>
+        <v>267.22</v>
       </c>
       <c r="D19" t="n">
-        <v>402.6</v>
+        <v>340.14</v>
       </c>
       <c r="E19" t="n">
-        <v>5.32</v>
+        <v>9.795999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406.1</v>
+        <v>355.22</v>
       </c>
       <c r="D20" t="n">
-        <v>468.5</v>
+        <v>415.12</v>
       </c>
       <c r="E20" t="n">
-        <v>4.16</v>
+        <v>3.528</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>418.48</v>
+        <v>333.62</v>
       </c>
       <c r="D21" t="n">
-        <v>489.84</v>
+        <v>380.84</v>
       </c>
       <c r="E21" t="n">
-        <v>4.476</v>
+        <v>7.776</v>
       </c>
     </row>
     <row r="22">
@@ -846,117 +846,117 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>351.58</v>
+        <v>422.4</v>
       </c>
       <c r="D22" t="n">
-        <v>400.96</v>
+        <v>484.5</v>
       </c>
       <c r="E22" t="n">
-        <v>5.324</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489.84</v>
+        <v>484.5</v>
       </c>
       <c r="D23" t="n">
-        <v>557.4400000000001</v>
+        <v>592.5599999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>1.296</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>557.4400000000001</v>
+        <v>332.42</v>
       </c>
       <c r="D24" t="n">
-        <v>621.85</v>
+        <v>386.6</v>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>621.85</v>
+        <v>386.6</v>
       </c>
       <c r="D25" t="n">
-        <v>661.83</v>
+        <v>440.46</v>
       </c>
       <c r="E25" t="n">
-        <v>27.192</v>
+        <v>1.964</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>595.1900000000001</v>
+        <v>440.46</v>
       </c>
       <c r="D26" t="n">
-        <v>647.91</v>
+        <v>513.4299999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>27.408</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>468.5</v>
+        <v>415.12</v>
       </c>
       <c r="D27" t="n">
-        <v>513.92</v>
+        <v>485.08</v>
       </c>
       <c r="E27" t="n">
-        <v>1.248</v>
+        <v>1.152</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>513.92</v>
+        <v>485.08</v>
       </c>
       <c r="D28" t="n">
-        <v>598.22</v>
+        <v>559.78</v>
       </c>
       <c r="E28" t="n">
         <v>30</v>
@@ -975,135 +975,135 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>598.22</v>
+        <v>340.14</v>
       </c>
       <c r="D29" t="n">
-        <v>658.14</v>
+        <v>387.54</v>
       </c>
       <c r="E29" t="n">
-        <v>27.668</v>
+        <v>6.676</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>395</v>
+        <v>513.4299999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>434.52</v>
+        <v>548.51</v>
       </c>
       <c r="E30" t="n">
-        <v>4.508</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>402.6</v>
+        <v>548.51</v>
       </c>
       <c r="D31" t="n">
-        <v>456.14</v>
+        <v>607.83</v>
       </c>
       <c r="E31" t="n">
-        <v>2.096</v>
+        <v>24.86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>400.96</v>
+        <v>380.84</v>
       </c>
       <c r="D32" t="n">
-        <v>441.12</v>
+        <v>455.6</v>
       </c>
       <c r="E32" t="n">
-        <v>2.948</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>658.14</v>
+        <v>387.54</v>
       </c>
       <c r="D33" t="n">
-        <v>710.74</v>
+        <v>467.9</v>
       </c>
       <c r="E33" t="n">
-        <v>24.028</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>456.14</v>
+        <v>607.83</v>
       </c>
       <c r="D34" t="n">
-        <v>538.65</v>
+        <v>657.23</v>
       </c>
       <c r="E34" t="n">
-        <v>30</v>
+        <v>21.56</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>538.65</v>
+        <v>559.78</v>
       </c>
       <c r="D35" t="n">
-        <v>597.61</v>
+        <v>615.7</v>
       </c>
       <c r="E35" t="n">
-        <v>27.264</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="36">
@@ -1112,17 +1112,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>434.52</v>
+        <v>446.12</v>
       </c>
       <c r="D36" t="n">
-        <v>483.72</v>
+        <v>516.78</v>
       </c>
       <c r="E36" t="n">
-        <v>1.208</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
@@ -1131,74 +1131,131 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>483.72</v>
+        <v>516.78</v>
       </c>
       <c r="D37" t="n">
-        <v>567.9</v>
+        <v>555.58</v>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>26.82</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>441.12</v>
+        <v>555.58</v>
       </c>
       <c r="D38" t="n">
-        <v>512.22</v>
+        <v>602.46</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>23.752</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>512.22</v>
+        <v>467.9</v>
       </c>
       <c r="D39" t="n">
-        <v>587.88</v>
+        <v>523.3200000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>26.584</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
+        <v>2</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>depot1</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>523.3200000000001</v>
+      </c>
+      <c r="D40" t="n">
+        <v>609.22</v>
+      </c>
+      <c r="E40" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>pond23</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>455.6</v>
+      </c>
+      <c r="D41" t="n">
+        <v>519.58</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2.592</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>pond24</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>592.5599999999999</v>
+      </c>
+      <c r="D42" t="n">
+        <v>633.88</v>
+      </c>
+      <c r="E42" t="n">
+        <v>26.568</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
         <v>6</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>pond37</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>567.9</v>
-      </c>
-      <c r="D40" t="n">
-        <v>620.4</v>
-      </c>
-      <c r="E40" t="n">
-        <v>26.92</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>pond20</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>602.46</v>
+      </c>
+      <c r="D43" t="n">
+        <v>643.62</v>
+      </c>
+      <c r="E43" t="n">
+        <v>21.256</v>
       </c>
     </row>
   </sheetData>
